--- a/thermodynamic_properties_references_matlab.xlsx
+++ b/thermodynamic_properties_references_matlab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimiguel\Google Drive\primary\elastic_thermobarometry\pt_calculation_scripts\mixing_model_active\solid_inclusion_calculator_matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimiguel\Google Drive\primary\elastic_thermobarometry\pt_calculation_scripts\mixing_model_active\solid_inclusion_calculator_matlab_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCD438-0D32-4A47-A138-F8569D5B2324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE744D-4874-40AD-AA68-66507CB14001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="750" windowWidth="19420" windowHeight="10420" xr2:uid="{4747756F-85A4-4F15-8A8A-D44870E0EC54}"/>
+    <workbookView xWindow="30600" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4747756F-85A4-4F15-8A8A-D44870E0EC54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="478">
   <si>
     <t>Component</t>
   </si>
@@ -1459,6 +1453,12 @@
   </si>
   <si>
     <t>Angel et al., 2017</t>
+  </si>
+  <si>
+    <t>Nestola et al., 2018</t>
+  </si>
+  <si>
+    <t>Edrees et al., 2018</t>
   </si>
 </sst>
 </file>
@@ -1873,9 +1873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D51B19-92B8-4F29-A7CA-CF4298DD1A9F}">
   <dimension ref="A1:BA213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL205" sqref="AL205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8354,7 +8354,25 @@
       <c r="U108" s="5">
         <v>8</v>
       </c>
-      <c r="AH108" s="2"/>
+      <c r="AH108" s="2">
+        <v>1051.0999999999999</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ108">
+        <v>1927</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>476</v>
+      </c>
+      <c r="AL108" s="4">
+        <f>(2*AH108-3*AJ108)/(-6*AJ108-2*AH108)</f>
+        <v>0.26922908037060345</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>9</v>
+      </c>
       <c r="AP108">
         <v>1</v>
       </c>
@@ -13754,6 +13772,12 @@
         <v>5</v>
       </c>
       <c r="AH205" s="2"/>
+      <c r="AL205">
+        <v>0.26</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>477</v>
+      </c>
       <c r="AP205">
         <v>1</v>
       </c>
